--- a/pred_ohlcv/54_21/2020-01-20 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WTC ohlcv.xlsx
@@ -2342,7 +2342,7 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>140.1074176934319</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>40.28551769343187</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>30.28551769343187</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-746.7144823065681</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8193.66211769343</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>8174.14661769343</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>8195.271017693431</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>8195.271017693431</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>7478.484917693431</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>7028.549117693431</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>6999.649117693431</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>6999.649117693431</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>7020.248017693431</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2219.537917693432</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>9775.534817693431</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15250.89651769343</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12778.18481769343</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>61840.15773756251</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>90383.43753756251</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>94559.16833756251</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>87670.51468903372</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>119282.2451085929</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>206946.2677260942</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>213173.0461273988</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>199655.6720273988</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>193149.8523415735</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>180795.8096415735</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>200569.4657758344</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>194868.2247758344</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>203664.5150822471</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>198517.3521822471</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>202836.8549822471</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>188282.0182822471</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>178716.8489822471</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>170725.6140822471</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>174531.9711822471</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WTC ohlcv.xlsx
@@ -2342,7 +2342,7 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>140.1074176934319</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>40.28551769343187</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>30.28551769343187</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-746.7144823065681</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>8193.66211769343</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>7020.248017693431</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2219.537917693432</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>9775.534817693431</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15250.89651769343</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12778.18481769343</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>151765.7753375625</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>61840.15773756251</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>90383.43753756251</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>94559.16833756251</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>87670.51468903372</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>119282.2451085929</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>253182.3290994941</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>223468.25546092</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>206946.2677260942</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>213173.0461273988</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>199655.6720273988</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>193149.8523415735</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>180795.8096415735</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>200569.4657758344</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>194868.2247758344</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>203664.5150822471</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>198517.3521822471</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>202836.8549822471</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>188282.0182822471</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>178716.8489822471</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>170725.6140822471</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>174531.9711822471</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>174465.2113822471</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>175602.1443822471</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>144155.7957822471</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>130513.2788822471</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>132961.1939822471</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
